--- a/medicine/Enfance/Guillaume_Prévost/Guillaume_Prévost.xlsx
+++ b/medicine/Enfance/Guillaume_Prévost/Guillaume_Prévost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guillaume_Pr%C3%A9vost</t>
+          <t>Guillaume_Prévost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Prévost, né le 11 novembre 1964 à Tananarive, est un professeur d'histoire et un écrivain français, auteur de roman policier historique et de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guillaume_Pr%C3%A9vost</t>
+          <t>Guillaume_Prévost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien élève de l’École normale supérieure de Saint-Cloud, il est agrégé d’histoire et enseigne aujourd’hui à Versailles.
 Il est l'auteur de la série Le Livre du temps chez Gallimard Jeunesse et de plusieurs romans policiers historiques chez NiL : Les Sept Crimes de Rome, L'Assassin et le Prophète et aussi Le Mystère de la chambre obscure, où Jules Verne mène l'enquête. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guillaume_Pr%C3%A9vost</t>
+          <t>Guillaume_Prévost</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,28 +560,217 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roman
-Merci pour ce roman, éditions François Bourin, 2016  (ISBN 979-1-02-520197-8)
-Romans policiers historiques
-Série François-Claudius Simon
-La Valse des gueules cassées, NiL, 2010 ; réédition 10/18, coll. « Grands Détectives » no 4423, 2011
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Merci pour ce roman, éditions François Bourin, 2016  (ISBN 979-1-02-520197-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guillaume_Prévost</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Pr%C3%A9vost</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers historiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série François-Claudius Simon</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Valse des gueules cassées, NiL, 2010 ; réédition 10/18, coll. « Grands Détectives » no 4423, 2011
 Le Bal de l'Équarrisseur, NiL, 2011 ; réédition 10/18, coll. « Grands Détectives » no 4533, 2012
 Le Quadrille des Maudits, NiL, 2012 ; réédition 10/18, coll. « Grands Détectives » no 4707, 2013
 La Berceuse de Staline, NiL, 2014 ; réédition 10/18, coll. « Grands Détectives » no 4971, 2015
-Cantique de l'assassin, NiL, 2016 ; réédition 10/18, coll. « Grands Détectives » no 5284, 2018
-Autres romans policiers historiques
-Les Sept Crimes de Rome, NiL, 2000 ; réédition, Presses-Pocket no 11172, 2002 ; réédition 10/18, coll. « Grands Détectives » no 3947, 2006
+Cantique de l'assassin, NiL, 2016 ; réédition 10/18, coll. « Grands Détectives » no 5284, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guillaume_Prévost</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Pr%C3%A9vost</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers historiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans policiers historiques</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Sept Crimes de Rome, NiL, 2000 ; réédition, Presses-Pocket no 11172, 2002 ; réédition 10/18, coll. « Grands Détectives » no 3947, 2006
 L'Assassin et le Prophète, NiL, 2002 ; réédition, Presses-Pocket no 11745, 2004 ; réédition 10/18, coll. « Grands Détectives » no 4035, 2007
-Le Mystère de la chambre obscure, NiL 2005 ; réédition, Presses-Pocket no 12656, 2006 ; réédition 10/18, coll. « Grands Détectives » no 4098, 2008
-Romans pour la jeunesse
-Série Le Livre du temps
-La Pierre sculptée, Gallimard Jeunesse, 2006 ; réédition, Gallimard, coll. « Folio junior » 2008, 2019
+Le Mystère de la chambre obscure, NiL 2005 ; réédition, Presses-Pocket no 12656, 2006 ; réédition 10/18, coll. « Grands Détectives » no 4098, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Guillaume_Prévost</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Pr%C3%A9vost</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Le Livre du temps</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Pierre sculptée, Gallimard Jeunesse, 2006 ; réédition, Gallimard, coll. « Folio junior » 2008, 2019
 Les Sept Pièces, Gallimard Jeunesse, 2007 ; réédition, Gallimard, coll. « Folio junior » 2009
-Le Cercle d'or, Gallimard Jeunesse, 2008 ; réédition, Gallimard, coll. « Folio junior » 2010
-Autre roman pour la jeunesse
-Force noire, Gallimard jeunesse, 2014 ; réédition, Gallimard, coll. « Folio junior », 2017 (Grand Prix des jeunes lecteurs 2015 ; prix Alterre ado 2016)
-Bandes dessinées
-Les Sept crimes de Rome, Éditions du Rocher, 2019
+Le Cercle d'or, Gallimard Jeunesse, 2008 ; réédition, Gallimard, coll. « Folio junior » 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guillaume_Prévost</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Pr%C3%A9vost</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autre roman pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Force noire, Gallimard jeunesse, 2014 ; réédition, Gallimard, coll. « Folio junior », 2017 (Grand Prix des jeunes lecteurs 2015 ; prix Alterre ado 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Guillaume_Prévost</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Pr%C3%A9vost</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sept crimes de Rome, Éditions du Rocher, 2019
 </t>
         </is>
       </c>
